--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43660,6 +43660,41 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>13100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43695,6 +43695,41 @@
         <v>13100</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43730,6 +43730,41 @@
         <v>600</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43765,6 +43765,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43802,6 +43802,41 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43837,6 +43837,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43874,6 +43874,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43911,6 +43911,43 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43948,6 +43948,43 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43985,6 +43985,41 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>7200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44020,6 +44020,41 @@
         <v>7200</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>1100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44055,6 +44055,41 @@
         <v>1100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44090,6 +44090,78 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44162,6 +44162,80 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44236,6 +44236,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44273,6 +44273,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44310,6 +44310,43 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44347,6 +44347,41 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44382,6 +44382,78 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44454,6 +44454,43 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44491,6 +44491,43 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2384"/>
+  <dimension ref="A1:I2385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84918,6 +84918,43 @@
         </is>
       </c>
     </row>
+    <row r="2385">
+      <c r="A2385" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2385" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D2385" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E2385" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F2385" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G2385" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H2385" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I2385" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2385"/>
+  <dimension ref="A1:I2386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84955,6 +84955,41 @@
         </is>
       </c>
     </row>
+    <row r="2386">
+      <c r="A2386" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2386" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D2386" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E2386" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="F2386" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G2386" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H2386" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I2386" t="n">
+        <v>15300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2386"/>
+  <dimension ref="A1:I2387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84990,6 +84990,41 @@
         <v>15300</v>
       </c>
     </row>
+    <row r="2387">
+      <c r="A2387" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2387" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D2387" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E2387" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F2387" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G2387" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H2387" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I2387" t="n">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2387"/>
+  <dimension ref="A1:I2388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85025,6 +85025,43 @@
         <v>400</v>
       </c>
     </row>
+    <row r="2388">
+      <c r="A2388" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2388" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D2388" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E2388" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F2388" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G2388" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H2388" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I2388" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2388"/>
+  <dimension ref="A1:I2389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85062,6 +85062,43 @@
         </is>
       </c>
     </row>
+    <row r="2389">
+      <c r="A2389" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2389" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D2389" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E2389" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F2389" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G2389" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H2389" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I2389" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2389"/>
+  <dimension ref="A1:I2390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85099,6 +85099,43 @@
         </is>
       </c>
     </row>
+    <row r="2390">
+      <c r="A2390" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D2390" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E2390" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F2390" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G2390" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H2390" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I2390" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2390"/>
+  <dimension ref="A1:I2391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85136,6 +85136,41 @@
         </is>
       </c>
     </row>
+    <row r="2391">
+      <c r="A2391" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2391" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D2391" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E2391" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F2391" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="G2391" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H2391" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I2391" t="n">
+        <v>1900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2391"/>
+  <dimension ref="A1:I2392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85171,6 +85171,43 @@
         <v>1900</v>
       </c>
     </row>
+    <row r="2392">
+      <c r="A2392" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2392" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D2392" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E2392" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F2392" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G2392" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H2392" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I2392" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2392"/>
+  <dimension ref="A1:I2393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85208,6 +85208,43 @@
         </is>
       </c>
     </row>
+    <row r="2393">
+      <c r="A2393" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2393" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D2393" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E2393" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F2393" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G2393" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H2393" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I2393" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2393"/>
+  <dimension ref="A1:I2394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85245,6 +85245,41 @@
         </is>
       </c>
     </row>
+    <row r="2394">
+      <c r="A2394" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2394" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D2394" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E2394" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F2394" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G2394" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H2394" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="I2394" t="n">
+        <v>5500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2394"/>
+  <dimension ref="A1:I2395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85280,6 +85280,43 @@
         <v>5500</v>
       </c>
     </row>
+    <row r="2395">
+      <c r="A2395" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2395" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D2395" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E2395" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F2395" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="G2395" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="H2395" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="I2395" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2395"/>
+  <dimension ref="A1:I2396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85317,6 +85317,41 @@
         </is>
       </c>
     </row>
+    <row r="2396">
+      <c r="A2396" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2396" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D2396" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E2396" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F2396" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G2396" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H2396" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I2396" t="n">
+        <v>3600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2396"/>
+  <dimension ref="A1:I2397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85352,6 +85352,43 @@
         <v>3600</v>
       </c>
     </row>
+    <row r="2397">
+      <c r="A2397" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2397" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D2397" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E2397" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F2397" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G2397" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H2397" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I2397" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2397"/>
+  <dimension ref="A1:I2398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85389,6 +85389,43 @@
         </is>
       </c>
     </row>
+    <row r="2398">
+      <c r="A2398" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2398" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D2398" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E2398" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F2398" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G2398" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H2398" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I2398" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2569.xlsx
+++ b/data/2569.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2398"/>
+  <dimension ref="A1:I2399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85426,6 +85426,43 @@
         </is>
       </c>
     </row>
+    <row r="2399">
+      <c r="A2399" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2399" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="D2399" t="inlineStr">
+        <is>
+          <t>SBAGAN</t>
+        </is>
+      </c>
+      <c r="E2399" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F2399" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G2399" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H2399" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I2399" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
